--- a/data/trans_orig/P21D3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D3_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>72191</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56457</v>
+        <v>58990</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87534</v>
+        <v>93020</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2846027337581765</v>
+        <v>0.2846027337581766</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.222575589700957</v>
+        <v>0.2325613616465234</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3450908584632812</v>
+        <v>0.3667193197568018</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -762,19 +762,19 @@
         <v>42619</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33500</v>
+        <v>33945</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53196</v>
+        <v>54288</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1169682567256674</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09194019631409758</v>
+        <v>0.09316222002979355</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1459963849058632</v>
+        <v>0.1489941917816721</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>134</v>
@@ -783,19 +783,19 @@
         <v>114810</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>95632</v>
+        <v>97444</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>137740</v>
+        <v>136022</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1857706402872462</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1547389688665535</v>
+        <v>0.157671478864067</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2228728107914737</v>
+        <v>0.2200927801547325</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>179639</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>164937</v>
+        <v>158986</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>195577</v>
+        <v>193481</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7082018194137361</v>
+        <v>0.7082018194137362</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6502422761650802</v>
+        <v>0.6267802991090166</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7710341689126954</v>
+        <v>0.762773224731065</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>558</v>
@@ -833,19 +833,19 @@
         <v>315605</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>304630</v>
+        <v>303839</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>325549</v>
+        <v>325205</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8661764874330992</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8360547860221231</v>
+        <v>0.8338837303231162</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8934680471660804</v>
+        <v>0.8925232645419052</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>788</v>
@@ -854,19 +854,19 @@
         <v>495244</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>471839</v>
+        <v>473803</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>514718</v>
+        <v>512788</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8013387888016089</v>
+        <v>0.801338788801609</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7634674735524114</v>
+        <v>0.7666457212658456</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8328493972983499</v>
+        <v>0.8297266363910161</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6664</v>
+        <v>6439</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0071954468280873</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0262699883796341</v>
+        <v>0.0253829522551566</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -904,19 +904,19 @@
         <v>4878</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2383</v>
+        <v>2172</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9257</v>
+        <v>9119</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01338705854172992</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.006540680844392499</v>
+        <v>0.005962093837183451</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02540597953034837</v>
+        <v>0.02502779437763488</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -925,19 +925,19 @@
         <v>6703</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3315</v>
+        <v>3320</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12271</v>
+        <v>12649</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01084582924613704</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005363492413617833</v>
+        <v>0.005371206757100758</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.019854609231366</v>
+        <v>0.02046665937053107</v>
       </c>
     </row>
     <row r="7">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4380</v>
+        <v>3941</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.003468197299503415</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01201979815221888</v>
+        <v>0.01081536791782378</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4045</v>
+        <v>4304</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002044741665007712</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.006545677960917451</v>
+        <v>0.006963520574874033</v>
       </c>
     </row>
     <row r="8">
@@ -1092,19 +1092,19 @@
         <v>304478</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>270018</v>
+        <v>267584</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>343818</v>
+        <v>339541</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3173267986765566</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2814126064869142</v>
+        <v>0.2788754117823368</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3583261482971366</v>
+        <v>0.3538689053187368</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>249</v>
@@ -1113,19 +1113,19 @@
         <v>223259</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>199781</v>
+        <v>196243</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>250251</v>
+        <v>249160</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2265396639147601</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2027170010600983</v>
+        <v>0.1991269486970812</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2539284479523462</v>
+        <v>0.2528212816546113</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>479</v>
@@ -1134,19 +1134,19 @@
         <v>527737</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>487686</v>
+        <v>481318</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>571735</v>
+        <v>569754</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2713262409283441</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2507347889684449</v>
+        <v>0.2474603672698568</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2939468357770997</v>
+        <v>0.2929283032104024</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>650985</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>612322</v>
+        <v>614377</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>684740</v>
+        <v>687477</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.67845601155641</v>
+        <v>0.6784560115564099</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.638161324961838</v>
+        <v>0.6403026013356731</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7136350737497941</v>
+        <v>0.7164872210074045</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1031</v>
@@ -1184,19 +1184,19 @@
         <v>753761</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>727062</v>
+        <v>725698</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>777420</v>
+        <v>781013</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7648371048717447</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7377450407991976</v>
+        <v>0.7363615493843629</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7888431330901163</v>
+        <v>0.7924891385612265</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1630</v>
@@ -1205,19 +1205,19 @@
         <v>1404747</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1362689</v>
+        <v>1360394</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1446811</v>
+        <v>1450697</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.722224090390834</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7006007016033544</v>
+        <v>0.6994209693039659</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7438505218674846</v>
+        <v>0.7458484333619019</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>3300</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>814</v>
+        <v>934</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7853</v>
+        <v>7915</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.003439094283268616</v>
+        <v>0.003439094283268617</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0008479564718864398</v>
+        <v>0.0009738359906104248</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.008184316870511247</v>
+        <v>0.008249221037310107</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -1255,19 +1255,19 @@
         <v>7749</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4023</v>
+        <v>3610</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15230</v>
+        <v>16367</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.00786307029765119</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004082238988743803</v>
+        <v>0.003662930934317543</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01545408076956179</v>
+        <v>0.01660779509245074</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -1276,19 +1276,19 @@
         <v>11049</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6165</v>
+        <v>5997</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19254</v>
+        <v>19322</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005680660389085939</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003169796742416955</v>
+        <v>0.003083078455194871</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.009898991571703651</v>
+        <v>0.009934182173865972</v>
       </c>
     </row>
     <row r="12">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3791</v>
+        <v>3776</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0007780954837649649</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.003951320061819029</v>
+        <v>0.003935739322741558</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4352</v>
+        <v>3764</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0007601609158439772</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.00441576776603943</v>
+        <v>0.003819282241494691</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4584</v>
+        <v>5279</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0007690082917360146</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.002356830594262305</v>
+        <v>0.002713884128753648</v>
       </c>
     </row>
     <row r="13">
@@ -1451,19 +1451,19 @@
         <v>90985</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>74483</v>
+        <v>71677</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>111117</v>
+        <v>110571</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2620469070830657</v>
+        <v>0.2620469070830658</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2145192112416588</v>
+        <v>0.2064365780914682</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3200284680140949</v>
+        <v>0.3184556591689271</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>98</v>
@@ -1472,19 +1472,19 @@
         <v>77984</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>64642</v>
+        <v>64849</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>92412</v>
+        <v>92675</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2278631589503898</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1888800191343819</v>
+        <v>0.1894836205811201</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2700219440272413</v>
+        <v>0.2707881435258283</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>171</v>
@@ -1493,19 +1493,19 @@
         <v>168969</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>145322</v>
+        <v>145334</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>192303</v>
+        <v>191488</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2450782235976224</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2107799832620619</v>
+        <v>0.210797845027455</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2789238407712702</v>
+        <v>0.2777413370274441</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>253609</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>233769</v>
+        <v>234704</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>270745</v>
+        <v>273049</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7304215398536945</v>
+        <v>0.7304215398536947</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6732805214738867</v>
+        <v>0.6759720267677792</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7797763956931074</v>
+        <v>0.7864123059597716</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>339</v>
@@ -1543,19 +1543,19 @@
         <v>260701</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>245988</v>
+        <v>246933</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>274215</v>
+        <v>275343</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.7617476083726016</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.7187573589756096</v>
+        <v>0.7215189617168476</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8012361729970462</v>
+        <v>0.8045310149147105</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>582</v>
@@ -1564,19 +1564,19 @@
         <v>514309</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>489806</v>
+        <v>490122</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>537969</v>
+        <v>539564</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.7459716819702792</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.7104320827877854</v>
+        <v>0.7108903633840898</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.7802901520318358</v>
+        <v>0.7826025470869856</v>
       </c>
     </row>
     <row r="16">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9195</v>
+        <v>9324</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007531553063239591</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0264815478427124</v>
+        <v>0.02685287498763985</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1614,19 +1614,19 @@
         <v>3556</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1172</v>
+        <v>1372</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7439</v>
+        <v>7126</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01038923267700858</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003425717514922293</v>
+        <v>0.004009949956508792</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02173704242557421</v>
+        <v>0.02082059727235762</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1635,19 +1635,19 @@
         <v>6171</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2732</v>
+        <v>2726</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12779</v>
+        <v>13095</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008950094432098377</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003963045117629343</v>
+        <v>0.003954414144278028</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0185345913258879</v>
+        <v>0.01899324434639342</v>
       </c>
     </row>
     <row r="17">
@@ -1786,19 +1786,19 @@
         <v>467654</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>426106</v>
+        <v>426909</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>508617</v>
+        <v>515208</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2997064774807552</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2730795428311609</v>
+        <v>0.2735937051378453</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3259580998980189</v>
+        <v>0.3301821119992946</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>413</v>
@@ -1807,19 +1807,19 @@
         <v>343862</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>314978</v>
+        <v>310289</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>380477</v>
+        <v>374291</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2032132665750704</v>
+        <v>0.2032132665750705</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1861433450142104</v>
+        <v>0.1833722148289714</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2248519292511579</v>
+        <v>0.2211959701498052</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>784</v>
@@ -1828,19 +1828,19 @@
         <v>811516</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>758951</v>
+        <v>758120</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>870655</v>
+        <v>864362</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2495055272373498</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2333441853369796</v>
+        <v>0.2330884869573123</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2676882266000943</v>
+        <v>0.2657531328808795</v>
       </c>
     </row>
     <row r="20">
@@ -1857,19 +1857,19 @@
         <v>1084233</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1045822</v>
+        <v>1038577</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1127199</v>
+        <v>1126557</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6948546857723866</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6702381625290749</v>
+        <v>0.6655947928313701</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7223900575046022</v>
+        <v>0.7219786852094822</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1928</v>
@@ -1878,19 +1878,19 @@
         <v>1330067</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1293225</v>
+        <v>1299742</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1359582</v>
+        <v>1364599</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7860337135951009</v>
+        <v>0.7860337135951008</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7642615672411166</v>
+        <v>0.7681125098240533</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8034767673533367</v>
+        <v>0.8064416625895025</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3000</v>
@@ -1899,19 +1899,19 @@
         <v>2414300</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2357880</v>
+        <v>2362037</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2468102</v>
+        <v>2467551</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7422909125909151</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7249444245324711</v>
+        <v>0.7262223417286838</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7588327163829041</v>
+        <v>0.7586633236212043</v>
       </c>
     </row>
     <row r="21">
@@ -1928,19 +1928,19 @@
         <v>7740</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3378</v>
+        <v>3458</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14852</v>
+        <v>15380</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.004960367815574353</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00216515987643514</v>
+        <v>0.002216237376794612</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.009518018585809888</v>
+        <v>0.009856577407951895</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>24</v>
@@ -1949,19 +1949,19 @@
         <v>16183</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10840</v>
+        <v>10594</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>26052</v>
+        <v>24966</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.009563481629350046</v>
+        <v>0.009563481629350045</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.006406219672949662</v>
+        <v>0.006261045255794301</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01539615197623008</v>
+        <v>0.01475440849160468</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>32</v>
@@ -1970,19 +1970,19 @@
         <v>23923</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15799</v>
+        <v>16491</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>33760</v>
+        <v>34348</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.00735515482039225</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004857406794649123</v>
+        <v>0.005070355099600703</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01037959116563776</v>
+        <v>0.01056048839537969</v>
       </c>
     </row>
     <row r="22">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3745</v>
+        <v>3827</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0004784689312838138</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.002400090843881152</v>
+        <v>0.002452734061925452</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2020,19 +2020,19 @@
         <v>2013</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5510</v>
+        <v>5602</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001189538200478654</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0003309967969837351</v>
+        <v>0.0003314290403748119</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.003256532325714667</v>
+        <v>0.003310737606894672</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -2041,19 +2041,19 @@
         <v>2759</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>743</v>
+        <v>698</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6482</v>
+        <v>7046</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.000848405351342999</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0002283948538748057</v>
+        <v>0.0002146435521435615</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.001992963467154234</v>
+        <v>0.002166276838255611</v>
       </c>
     </row>
     <row r="23">
